--- a/MetroSystem/data/lines_SZ.xlsx
+++ b/MetroSystem/data/lines_SZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\MetroSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B188A827-924B-4C99-8985-29692C1405DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584CD1C-47E1-452B-8025-3C61356B9B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -708,84 +708,81 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N3">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="P3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3">
-        <v>86</v>
-      </c>
-      <c r="AI3">
         <v>87</v>
       </c>
     </row>
